--- a/biology/Virologie/Virus_de_Dobrava-Belgrade/Virus_de_Dobrava-Belgrade.xlsx
+++ b/biology/Virologie/Virus_de_Dobrava-Belgrade/Virus_de_Dobrava-Belgrade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dobrava-Belgrade orthohantavirus (DOBV), le virus de Dobrava-Belgrade est une espèce de virus à ARN enveloppé monocaténaire de polarité négative (groupe V de la classification Baltimore) de l'ordre des Bunyavirales[3]. Cet orthohantavirus de l'Ancien Monde est l'agent causal de la fièvre hémorragique à hantavirus sévère avec syndrome rénal.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dobrava-Belgrade orthohantavirus (DOBV), le virus de Dobrava-Belgrade est une espèce de virus à ARN enveloppé monocaténaire de polarité négative (groupe V de la classification Baltimore) de l'ordre des Bunyavirales. Cet orthohantavirus de l'Ancien Monde est l'agent causal de la fièvre hémorragique à hantavirus sévère avec syndrome rénal.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus a été isolé pour la première fois en 1985 chez un mulot à collier roux (Apodemus flavicollis) trouvée dans le village de Dobrava, dans le sud-est de la Slovénie[4],[5]. L'espèce a ensuite été isolée chez des mulots rayés en Russie et dans d'autres parties de l'Europe de l'Est. Il a également été trouvé en Allemagne, mais sans identifier le réservoir animal local[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus a été isolé pour la première fois en 1985 chez un mulot à collier roux (Apodemus flavicollis) trouvée dans le village de Dobrava, dans le sud-est de la Slovénie,. L'espèce a ensuite été isolée chez des mulots rayés en Russie et dans d'autres parties de l'Europe de l'Est. Il a également été trouvé en Allemagne, mais sans identifier le réservoir animal local.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Génotypes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On distingue quatre génotypes décrits[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On distingue quatre génotypes décrits :
 Dobrava, observée principalement dans le sud-est de l'Europe ;
 Kurkino, observé dans toute l'Europe du Nord et de l'Est ;
 Saaremaa (en), observé en Estonie et en Slovaquie ;
 Sotchi, observé dans la région côtière de la mer Noire en Russie.
-Les quatre génotypes ont chacun leur propre réservoir naturel[7] :
+Les quatre génotypes ont chacun leur propre réservoir naturel :
 Dobrava : mulot à collier roux ;
 Kurkino : mulot rayé ;
 Saaremaa : mulot rayé ;
@@ -581,9 +597,11 @@
           <t>Maladie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La présentation clinique varie entre les quatre génotypes. Le sous-type de Dobrava est la plus virulent, avec un taux de létalité de 10 à 12 %, suivi par le sous-type de Sochi avec plus de 6 %, celui de Kurkino, allant de 0,3 % à 0,9 % et enfin le sous-type de Saaremaa, qui semble être principalement subclinique car aucune maladie n'a été signalée malgré un taux de séropositivité relativement élevé[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présentation clinique varie entre les quatre génotypes. Le sous-type de Dobrava est la plus virulent, avec un taux de létalité de 10 à 12 %, suivi par le sous-type de Sochi avec plus de 6 %, celui de Kurkino, allant de 0,3 % à 0,9 % et enfin le sous-type de Saaremaa, qui semble être principalement subclinique car aucune maladie n'a été signalée malgré un taux de séropositivité relativement élevé.
 </t>
         </is>
       </c>
